--- a/biology/Botanique/Carl_Skottsberg/Carl_Skottsberg.xlsx
+++ b/biology/Botanique/Carl_Skottsberg/Carl_Skottsberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Johan Fredrik Skottsberg est un botaniste et un explorateur de l’Antarctique suédois, né le 1er décembre 1880 à Karlshamn et mort le 14 juin 1963.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l’université d'Uppsala à partir de 1898 et obtient son doctorat en 1907. Il devient alors Privatdozent. Il participe à une expédition suédoise en Antarctique de 1901 à 1903 puis dirige l’expédition suédoise en Patagonie de 1907 à 1909.
 Il est conservateur du jardin botanique de l’université d’Uppsala de 1909 à 1914 puis part dans le nouveau jardin botanique de Göteborg à partir de 1915. Il devient professeur et directeur du jardin en 1919.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 7 décembre 2006).</t>
         </is>
